--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>975079.4757389722</v>
+        <v>972887.5985857983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942701</v>
+        <v>28215137.919427</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774305</v>
+        <v>3165573.335774304</v>
       </c>
     </row>
     <row r="9">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>41.31500304752735</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>41.31500304752735</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U9" t="n">
-        <v>36.39025468426208</v>
       </c>
       <c r="V9" t="n">
         <v>41.31500304752735</v>
@@ -1277,7 +1277,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>311.5468321864838</v>
       </c>
       <c r="E11" t="n">
-        <v>100.4710470526475</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H12" t="n">
         <v>33.9158123956896</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541631</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>275.6136207896234</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>170.056484199861</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>196.4760273546598</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H15" t="n">
         <v>33.9158123956896</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.2927798113889</v>
+        <v>163.2927798113888</v>
       </c>
       <c r="H16" t="n">
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T16" t="n">
-        <v>240.6750725561512</v>
+        <v>240.6750725561516</v>
       </c>
       <c r="U16" t="n">
         <v>275.6136207896236</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>406.9169353666833</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>363.3185949629481</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
         <v>211.5956667680352</v>
@@ -1903,13 +1903,13 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H18" t="n">
         <v>33.9158123956896</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T19" t="n">
         <v>240.675072556151</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>132.5644154174186</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
-        <v>208.8329071297634</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H21" t="n">
         <v>33.9158123956896</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H24" t="n">
         <v>33.9158123956896</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427837</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H27" t="n">
         <v>33.9158123956896</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752247</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H30" t="n">
         <v>33.9158123956896</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H33" t="n">
         <v>33.9158123956896</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>327.6029616191612</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
         <v>256.5154774752252</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>273.4788872922505</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H36" t="n">
         <v>33.9158123956896</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>397.4313345788105</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.7815627213575</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H39" t="n">
         <v>33.9158123956896</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>88.90280614960552</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.7726521847899266</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H42" t="n">
         <v>33.9158123956896</v>
@@ -3918,7 +3918,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6750725561512</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U43" t="n">
         <v>275.6136207896234</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.7518410611933</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
         <v>256.5154774752252</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>93.7607173888738</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H45" t="n">
         <v>33.9158123956896</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541631</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
         <v>44.20705326085427</v>
@@ -4345,7 +4345,7 @@
         <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P2" t="n">
         <v>83.45630615600527</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E3" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F3" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4406,55 +4406,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>42.55445313895319</v>
+        <v>152.074432455416</v>
       </c>
       <c r="M3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C4" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D4" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
         <v>45.03752655443588</v>
@@ -4488,22 +4488,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="N4" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="M4" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>126.0107592949584</v>
-      </c>
-      <c r="O4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="P4" t="n">
         <v>165.2600121901094</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
         <v>3.305200243802188</v>
@@ -4567,28 +4567,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
+        <v>42.55445313895319</v>
+      </c>
+      <c r="P5" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
         <v>45.03752655443588</v>
@@ -4649,22 +4649,22 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L6" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O6" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P6" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P6" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q6" t="n">
         <v>165.2600121901094</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4728,22 +4728,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4755,22 +4755,22 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802188</v>
@@ -4807,19 +4807,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4883,28 +4883,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
         <v>70.27072642131186</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,16 +4913,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="U9" t="n">
-        <v>86.76985286506957</v>
-      </c>
       <c r="V9" t="n">
-        <v>45.03752655443588</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
         <v>3.305200243802188</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K10" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L10" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="M10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1701.883539222164</v>
+        <v>1910.723675018844</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.741066405587</v>
+        <v>1910.723675018844</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.741066405587</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E11" t="n">
         <v>1162.255160291802</v>
@@ -5041,25 +5041,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K11" t="n">
-        <v>1414.072152846029</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L11" t="n">
-        <v>1637.875063222713</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M11" t="n">
-        <v>1886.898923221001</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
-        <v>2139.952249620491</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O11" t="n">
-        <v>2378.903329992017</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P11" t="n">
-        <v>2582.842548760485</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q11" t="n">
         <v>2748.049925732253</v>
@@ -5071,22 +5071,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V11" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W11" t="n">
-        <v>2955.611696828107</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="X11" t="n">
-        <v>2536.469233407418</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="Y11" t="n">
-        <v>2128.183109707071</v>
+        <v>2337.023245503751</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L12" t="n">
-        <v>721.3620014574019</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M12" t="n">
-        <v>913.6258723515548</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N12" t="n">
         <v>1110.978395809273</v>
@@ -5193,25 +5193,25 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2663519946449</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I13" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
-        <v>966.5593737926658</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M13" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N13" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O13" t="n">
         <v>2352.768458191201</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1533.819716120948</v>
+        <v>895.9864213918689</v>
       </c>
       <c r="C14" t="n">
-        <v>1095.677243304371</v>
+        <v>895.9864213918689</v>
       </c>
       <c r="D14" t="n">
-        <v>659.7674584788156</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="E14" t="n">
-        <v>659.7674584788156</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F14" t="n">
-        <v>231.9000288880233</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G14" t="n">
-        <v>231.9000288880233</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
@@ -5278,25 +5278,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>850.4159591112997</v>
+        <v>921.023945160338</v>
       </c>
       <c r="L14" t="n">
-        <v>1074.218869487984</v>
+        <v>1144.826855537022</v>
       </c>
       <c r="M14" t="n">
-        <v>1323.242729486272</v>
+        <v>1393.85071553531</v>
       </c>
       <c r="N14" t="n">
-        <v>1576.296055885762</v>
+        <v>1646.9040419348</v>
       </c>
       <c r="O14" t="n">
-        <v>1815.247136257288</v>
+        <v>2390.960846925826</v>
       </c>
       <c r="P14" t="n">
-        <v>2559.303941248314</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q14" t="n">
         <v>2748.049925732253</v>
@@ -5308,22 +5308,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U14" t="n">
-        <v>2741.878700092718</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V14" t="n">
-        <v>2379.261750026545</v>
+        <v>2333.888203857666</v>
       </c>
       <c r="W14" t="n">
-        <v>2379.261750026545</v>
+        <v>1929.032749268699</v>
       </c>
       <c r="X14" t="n">
-        <v>1960.119286605855</v>
+        <v>1730.572115577123</v>
       </c>
       <c r="Y14" t="n">
-        <v>1960.119286605855</v>
+        <v>1322.285991876777</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K15" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L15" t="n">
-        <v>838.5347795517416</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,7 +5415,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989591</v>
+        <v>940.6829283989586</v>
       </c>
       <c r="D16" t="n">
         <v>774.8049356004817</v>
@@ -5439,19 +5439,19 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L16" t="n">
-        <v>1053.139058957356</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M16" t="n">
-        <v>1612.343363070977</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N16" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5466,7 +5466,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T16" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U16" t="n">
         <v>2336.856596530478</v>
@@ -5475,7 +5475,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1301.166539826203</v>
+        <v>1307.013628832963</v>
       </c>
       <c r="C17" t="n">
-        <v>863.0240670096264</v>
+        <v>895.9864213918689</v>
       </c>
       <c r="D17" t="n">
-        <v>427.1142821840709</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="E17" t="n">
-        <v>427.1142821840709</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F17" t="n">
-        <v>427.1142821840709</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G17" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="H17" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I17" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L17" t="n">
-        <v>833.0502213253063</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M17" t="n">
-        <v>1577.107026316332</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N17" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P17" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R17" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T17" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U17" t="n">
-        <v>2533.450581536206</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V17" t="n">
-        <v>2533.450581536206</v>
+        <v>2120.155207122276</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.595126947239</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X17" t="n">
-        <v>1709.45266352655</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="Y17" t="n">
-        <v>1301.166539826203</v>
+        <v>1307.013628832963</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H18" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160067</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101596</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678777</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C19" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D19" t="n">
         <v>774.8049356004817</v>
@@ -5670,34 +5670,34 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J19" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434336</v>
+        <v>399.7727096942237</v>
       </c>
       <c r="L19" t="n">
-        <v>744.3689516438138</v>
+        <v>912.5617265081459</v>
       </c>
       <c r="M19" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N19" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607995</v>
       </c>
       <c r="O19" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055533</v>
       </c>
       <c r="P19" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.40837483384</v>
       </c>
       <c r="Q19" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R19" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S19" t="n">
         <v>2858.360327182776</v>
@@ -5706,7 +5706,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U19" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V19" t="n">
         <v>2049.901088400909</v>
@@ -5718,7 +5718,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200.446798965582</v>
+        <v>1491.581211598154</v>
       </c>
       <c r="C20" t="n">
-        <v>762.3043261490054</v>
+        <v>1491.581211598154</v>
       </c>
       <c r="D20" t="n">
-        <v>762.3043261490054</v>
+        <v>1055.671426772599</v>
       </c>
       <c r="E20" t="n">
-        <v>762.3043261490054</v>
+        <v>621.8966819308939</v>
       </c>
       <c r="F20" t="n">
-        <v>334.4368965582132</v>
+        <v>194.0292523401017</v>
       </c>
       <c r="G20" t="n">
-        <v>334.4368965582132</v>
+        <v>194.0292523401017</v>
       </c>
       <c r="H20" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I20" t="n">
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>638.9641820350655</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>887.9880420333536</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>1885.09817342387</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
-        <v>2089.037392192339</v>
+        <v>2217.555344488756</v>
       </c>
       <c r="Q20" t="n">
-        <v>2788.686038188891</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R20" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>2795.347790741758</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U20" t="n">
-        <v>2795.347790741758</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V20" t="n">
-        <v>2432.730840675585</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W20" t="n">
-        <v>2027.875386086618</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="X20" t="n">
-        <v>1608.732922665929</v>
+        <v>1917.880782083062</v>
       </c>
       <c r="Y20" t="n">
-        <v>1200.446798965582</v>
+        <v>1917.880782083062</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H21" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880326</v>
+        <v>508.5637505147024</v>
       </c>
       <c r="K21" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730672</v>
       </c>
       <c r="L21" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517418</v>
       </c>
       <c r="M21" t="n">
-        <v>637.4931750101596</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N21" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P21" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q21" t="n">
         <v>1650.449431024751</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.6829283989596</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129754</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G22" t="n">
         <v>263.3976759832894</v>
@@ -5907,28 +5907,28 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I22" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J22" t="n">
         <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L22" t="n">
-        <v>1053.139058957356</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M22" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N22" t="n">
-        <v>2151.951474057206</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,7 +5943,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
@@ -5955,7 +5955,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
         <v>1637.019916722247</v>
@@ -5977,10 +5977,10 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5992,19 +5992,19 @@
         <v>275.7506719908251</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471221</v>
+        <v>1290.5015752053</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>1514.304485581983</v>
       </c>
       <c r="M23" t="n">
-        <v>2958.767680050496</v>
+        <v>1763.328345580272</v>
       </c>
       <c r="N23" t="n">
-        <v>3655.011560032721</v>
+        <v>2016.381671979762</v>
       </c>
       <c r="O23" t="n">
-        <v>3893.962640404246</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
         <v>4097.901859172714</v>
@@ -6022,16 +6022,16 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
         <v>2937.371744849287</v>
@@ -6065,31 +6065,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L24" t="n">
-        <v>486.219315704747</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988999</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N24" t="n">
-        <v>875.8357100566179</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,25 +6147,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>232.6717700129777</v>
+        <v>146.0920848482878</v>
       </c>
       <c r="K25" t="n">
-        <v>581.3400537321738</v>
+        <v>440.7627212829644</v>
       </c>
       <c r="L25" t="n">
-        <v>1094.129070546096</v>
+        <v>953.5517380968865</v>
       </c>
       <c r="M25" t="n">
-        <v>1653.333374659717</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N25" t="n">
-        <v>1884.171378332404</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O25" t="n">
-        <v>2393.758469779942</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P25" t="n">
-        <v>2818.205611558249</v>
+        <v>2986.398386422581</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
@@ -6226,19 +6226,19 @@
         <v>155.3825509282454</v>
       </c>
       <c r="J26" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1514.304485581984</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M26" t="n">
-        <v>1763.328345580272</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N26" t="n">
-        <v>2016.381671979763</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O26" t="n">
         <v>3065.65276557085</v>
@@ -6253,25 +6253,25 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V26" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X26" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>523.4900889429852</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K27" t="n">
-        <v>646.0204495922846</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L27" t="n">
-        <v>810.7776406709594</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M27" t="n">
-        <v>1003.041511565112</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N27" t="n">
-        <v>1200.39403502283</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.933038041614</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1525.831504563851</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6384,7 +6384,7 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>232.6717700129777</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
         <v>306.5815991610382</v>
@@ -6402,7 +6402,7 @@
         <v>2427.770122522348</v>
       </c>
       <c r="P28" t="n">
-        <v>2818.205611558249</v>
+        <v>2852.217264300655</v>
       </c>
       <c r="Q28" t="n">
         <v>3039.667825881328</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547802</v>
+        <v>2072.929701547804</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722248</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880543</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897494</v>
+        <v>775.377742289751</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469547</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6466,7 +6466,7 @@
         <v>275.7506719908251</v>
       </c>
       <c r="K29" t="n">
-        <v>456.1512832471221</v>
+        <v>456.151283247122</v>
       </c>
       <c r="L29" t="n">
         <v>1707.459481648809</v>
@@ -6478,10 +6478,10 @@
         <v>2209.536668046587</v>
       </c>
       <c r="O29" t="n">
-        <v>3065.65276557085</v>
+        <v>3428.667414988419</v>
       </c>
       <c r="P29" t="n">
-        <v>4097.901859172714</v>
+        <v>4460.916508590283</v>
       </c>
       <c r="Q29" t="n">
         <v>4797.550505169267</v>
@@ -6490,25 +6490,25 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265121</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U29" t="n">
         <v>4532.272736625464</v>
       </c>
       <c r="V29" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W29" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L30" t="n">
-        <v>486.219315704747</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M30" t="n">
-        <v>678.4831865988999</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N30" t="n">
-        <v>875.8357100566179</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,22 +6621,22 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>494.760368567484</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>1007.549385381406</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2106.361800481256</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2615.948891928794</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
         <v>2818.205611558249</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.072174364378</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C32" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722246</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897492</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282453</v>
+        <v>155.3825509282454</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K32" t="n">
-        <v>456.151283247122</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.598896984295</v>
+        <v>2142.714169101726</v>
       </c>
       <c r="M32" t="n">
-        <v>1762.622756982583</v>
+        <v>2391.738029100015</v>
       </c>
       <c r="N32" t="n">
-        <v>2015.676083382074</v>
+        <v>2644.791355499505</v>
       </c>
       <c r="O32" t="n">
-        <v>3234.806830323905</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P32" t="n">
-        <v>4267.05592392577</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q32" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R32" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612876</v>
       </c>
       <c r="S32" t="n">
         <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.37927952973</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625462</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970322</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849286</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="33">
@@ -6761,37 +6761,37 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E33" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F33" t="n">
-        <v>219.9850883306116</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H33" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>475.0644613181681</v>
+        <v>475.0644613181686</v>
       </c>
       <c r="K33" t="n">
-        <v>597.5948219674676</v>
+        <v>597.5948219674681</v>
       </c>
       <c r="L33" t="n">
-        <v>762.3520130461424</v>
+        <v>762.3520130461427</v>
       </c>
       <c r="M33" t="n">
-        <v>954.6158839402952</v>
+        <v>954.6158839402956</v>
       </c>
       <c r="N33" t="n">
-        <v>1151.968407398013</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
         <v>1332.507410416797</v>
@@ -6861,22 +6861,22 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K34" t="n">
-        <v>494.760368567484</v>
+        <v>440.7627212829644</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3589632325541</v>
+        <v>953.5517380968865</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.563267346175</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N34" t="n">
-        <v>1884.171378332404</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O34" t="n">
-        <v>2393.758469779942</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P34" t="n">
-        <v>2818.205611558249</v>
+        <v>2986.398386422581</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1636.356583791138</v>
+        <v>1698.864887350951</v>
       </c>
       <c r="C35" t="n">
-        <v>1198.214110974561</v>
+        <v>1260.722414534375</v>
       </c>
       <c r="D35" t="n">
-        <v>762.3043261490054</v>
+        <v>824.8126297088193</v>
       </c>
       <c r="E35" t="n">
-        <v>762.3043261490054</v>
+        <v>391.0378848671144</v>
       </c>
       <c r="F35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,25 +6937,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>638.9641820350655</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>887.9880420333536</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N35" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>1850.843260703269</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P35" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
         <v>2748.049925732253</v>
@@ -6967,22 +6967,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U35" t="n">
-        <v>2747.183578271595</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V35" t="n">
-        <v>2747.183578271595</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="W35" t="n">
-        <v>2470.942277976392</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="X35" t="n">
-        <v>2470.942277976392</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="Y35" t="n">
-        <v>2062.656154276046</v>
+        <v>2125.164457835859</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880326</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K36" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160067</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101596</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678777</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,16 +7074,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F37" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G37" t="n">
         <v>263.3976759832894</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K37" t="n">
-        <v>540.3500421434336</v>
+        <v>453.7703569787437</v>
       </c>
       <c r="L37" t="n">
-        <v>1053.139058957356</v>
+        <v>966.5593737926657</v>
       </c>
       <c r="M37" t="n">
-        <v>1612.343363070977</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N37" t="n">
-        <v>2151.951474057206</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1757.628595824366</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="C38" t="n">
-        <v>1757.628595824366</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="D38" t="n">
-        <v>1321.718810998811</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="E38" t="n">
-        <v>887.9440661571057</v>
+        <v>461.5715949273663</v>
       </c>
       <c r="F38" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G38" t="n">
         <v>60.12580242351726</v>
@@ -7174,52 +7174,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020849</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583818</v>
+        <v>415.1612716583817</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350655</v>
+        <v>638.9641820350653</v>
       </c>
       <c r="M38" t="n">
-        <v>887.9880420333536</v>
+        <v>887.9880420333534</v>
       </c>
       <c r="N38" t="n">
         <v>1141.041368432844</v>
       </c>
       <c r="O38" t="n">
-        <v>1379.99244880437</v>
+        <v>1473.498539497731</v>
       </c>
       <c r="P38" t="n">
-        <v>2124.049253795396</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q38" t="n">
-        <v>2823.697899791949</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>2429.9401743743</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W38" t="n">
-        <v>2025.084719785333</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X38" t="n">
-        <v>2025.084719785333</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1757.628595824366</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880326</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K39" t="n">
-        <v>280.472113037332</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L39" t="n">
-        <v>838.5347795517416</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M39" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283351</v>
       </c>
       <c r="O39" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7311,16 +7311,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C40" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D40" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E40" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F40" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G40" t="n">
         <v>263.3976759832894</v>
@@ -7335,13 +7335,13 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>1053.139058957356</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M40" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
         <v>1843.181366743664</v>
@@ -7371,7 +7371,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W40" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X40" t="n">
         <v>1532.482929320613</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1757.628595824366</v>
+        <v>824.1885449935402</v>
       </c>
       <c r="C41" t="n">
-        <v>1757.628595824366</v>
+        <v>824.1885449935402</v>
       </c>
       <c r="D41" t="n">
-        <v>1321.718810998811</v>
+        <v>824.1885449935402</v>
       </c>
       <c r="E41" t="n">
-        <v>887.9440661571057</v>
+        <v>824.1885449935402</v>
       </c>
       <c r="F41" t="n">
-        <v>460.0766365663134</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,28 +7411,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K41" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L41" t="n">
-        <v>1074.218869487984</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M41" t="n">
-        <v>1527.99291868531</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
-        <v>1781.0462450848</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>2019.997325456326</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P41" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
@@ -7441,22 +7441,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2955.611696828107</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2592.994746761934</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W41" t="n">
-        <v>2592.214290009621</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="X41" t="n">
-        <v>2592.214290009621</v>
+        <v>1658.774239178795</v>
       </c>
       <c r="Y41" t="n">
-        <v>2183.928166309274</v>
+        <v>1250.488115478448</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J42" t="n">
-        <v>482.5000773542449</v>
+        <v>434.074449729428</v>
       </c>
       <c r="K42" t="n">
-        <v>605.0304380035443</v>
+        <v>556.6048103787274</v>
       </c>
       <c r="L42" t="n">
-        <v>769.7876290822189</v>
+        <v>721.362001457402</v>
       </c>
       <c r="M42" t="n">
-        <v>962.0514999763718</v>
+        <v>913.6258723515549</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.40402343409</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O42" t="n">
-        <v>1339.943026452873</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P42" t="n">
-        <v>1484.84149297511</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q42" t="n">
-        <v>1581.702280555229</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7572,13 +7572,13 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L43" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M43" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N43" t="n">
         <v>1843.181366743664</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>934.1780600656494</v>
+        <v>1606.304948359291</v>
       </c>
       <c r="C44" t="n">
-        <v>496.0355872490728</v>
+        <v>1168.162475542714</v>
       </c>
       <c r="D44" t="n">
-        <v>60.12580242351726</v>
+        <v>1168.162475542714</v>
       </c>
       <c r="E44" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F44" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H44" t="n">
         <v>60.12580242351726</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L44" t="n">
-        <v>638.9641820350655</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M44" t="n">
-        <v>887.9880420333536</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O44" t="n">
-        <v>1379.99244880437</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P44" t="n">
-        <v>2124.049253795396</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7678,22 +7678,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2696.505153923839</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>2333.888203857666</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W44" t="n">
-        <v>1929.032749268699</v>
+        <v>2025.44741177998</v>
       </c>
       <c r="X44" t="n">
-        <v>1509.89028584801</v>
+        <v>1606.304948359291</v>
       </c>
       <c r="Y44" t="n">
-        <v>1101.604162147663</v>
+        <v>1606.304948359291</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J45" t="n">
-        <v>508.5637505147025</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K45" t="n">
-        <v>631.094111164002</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8513022426766</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M45" t="n">
-        <v>988.1151731368295</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N45" t="n">
-        <v>1185.467696594548</v>
+        <v>860.9093716283351</v>
       </c>
       <c r="O45" t="n">
-        <v>1366.006699613331</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P45" t="n">
-        <v>1510.905166135568</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q45" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7800,7 +7800,7 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946449</v>
       </c>
       <c r="I46" t="n">
         <v>60.12580242351726</v>
@@ -7809,19 +7809,19 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L46" t="n">
-        <v>1053.139058957356</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M46" t="n">
-        <v>1612.343363070977</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P46" t="n">
         <v>2777.215599969509</v>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>39.64570999510202</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>29.51002495954026</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.17931003415151</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>278.9219165064598</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>239.6903485172334</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>112.0193352648889</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>71.32119802933187</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>510.2078026459606</v>
       </c>
       <c r="P14" t="n">
-        <v>545.5733194167249</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.95568125856698</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>196.0465043335766</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>29.51002495953981</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309249</v>
       </c>
       <c r="L19" t="n">
-        <v>110.5452267216355</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>510.2078026459603</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>200.3727166292942</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8161134307256</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>43.11462354451055</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>281.9110270470424</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>447.6672258411468</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>818.5050638581438</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309253</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,7 +9807,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>818.5050638581433</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.44156613083101</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>316.6618598261975</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>135.5364869918444</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>623.3990072249871</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>185.3375116576017</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>126.5822947691813</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>842.065356929787</v>
+        <v>1037.884129318185</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>183.7478077775954</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>278.9219165064599</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309253</v>
       </c>
       <c r="L34" t="n">
-        <v>197.9994541607161</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>475.6068807059589</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954026</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>112.0193352648885</v>
+        <v>369.3652544861234</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>94.45059665996155</v>
       </c>
       <c r="P38" t="n">
-        <v>545.5733194167251</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>94.45059665996087</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,10 +10989,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N40" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>206.8183729283214</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954026</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>69.44156613083101</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495954026</v>
       </c>
       <c r="Q44" t="n">
-        <v>475.6068807059587</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.1146235445101</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11466,13 +11466,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>120.0038547908161</v>
       </c>
       <c r="E11" t="n">
-        <v>328.9659503406402</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5154774752252</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>101.5114989934879</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>218.4750114318226</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26.84411272172764</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>32.63273083842012</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>271.5679831933489</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>139.0035677759304</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.762759638271859</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>95.98579367572313</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>127.3280127508265</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>26.15742071607383</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
         <v>271.5679831933489</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>139.4216997419855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25633,19 +25633,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>334.6859491452788</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.0342478582871</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>256.2847337188654</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>307.0461826542032</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>616320.9883165943</v>
+        <v>616320.9883165944</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>428917.8559123267</v>
+      </c>
+      <c r="C2" t="n">
         <v>428917.8559123268</v>
-      </c>
-      <c r="C2" t="n">
-        <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123267</v>
       </c>
       <c r="E2" t="n">
-        <v>302294.9224813546</v>
+        <v>302294.9224813544</v>
       </c>
       <c r="F2" t="n">
         <v>302294.9224813546</v>
       </c>
       <c r="G2" t="n">
-        <v>302294.9224813545</v>
+        <v>302294.9224813544</v>
       </c>
       <c r="H2" t="n">
+        <v>302294.9224813543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>428917.8559123265</v>
+      </c>
+      <c r="J2" t="n">
+        <v>428917.8559123267</v>
+      </c>
+      <c r="K2" t="n">
+        <v>428917.8559123266</v>
+      </c>
+      <c r="L2" t="n">
+        <v>428917.8559123265</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302294.9224813546</v>
+      </c>
+      <c r="N2" t="n">
         <v>302294.9224813544</v>
       </c>
-      <c r="I2" t="n">
-        <v>428917.8559123266</v>
-      </c>
-      <c r="J2" t="n">
-        <v>428917.8559123266</v>
-      </c>
-      <c r="K2" t="n">
-        <v>428917.8559123265</v>
-      </c>
-      <c r="L2" t="n">
-        <v>428917.8559123266</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302294.9224813545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302294.9224813545</v>
-      </c>
       <c r="O2" t="n">
+        <v>302294.9224813543</v>
+      </c>
+      <c r="P2" t="n">
         <v>302294.9224813544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302294.9224813545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836708</v>
+        <v>498352.8259836707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961176</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041608</v>
+        <v>49313.08122041602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>300452.3867499857</v>
       </c>
       <c r="E4" t="n">
+        <v>55063.66722952563</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55063.66722952564</v>
+      </c>
+      <c r="G4" t="n">
         <v>55063.66722952561</v>
       </c>
-      <c r="F4" t="n">
-        <v>55063.66722952561</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>55063.66722952563</v>
-      </c>
-      <c r="H4" t="n">
-        <v>55063.66722952561</v>
       </c>
       <c r="I4" t="n">
         <v>107790.9243527942</v>
       </c>
       <c r="J4" t="n">
-        <v>107790.9243527942</v>
+        <v>107790.9243527943</v>
       </c>
       <c r="K4" t="n">
         <v>107790.9243527942</v>
       </c>
       <c r="L4" t="n">
-        <v>107790.9243527942</v>
+        <v>107790.9243527943</v>
       </c>
       <c r="M4" t="n">
-        <v>55063.66722952562</v>
+        <v>55063.66722952563</v>
       </c>
       <c r="N4" t="n">
-        <v>55063.66722952561</v>
+        <v>55063.66722952563</v>
       </c>
       <c r="O4" t="n">
-        <v>55063.66722952561</v>
+        <v>55063.66722952563</v>
       </c>
       <c r="P4" t="n">
-        <v>55063.66722952561</v>
+        <v>55063.66722952563</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>84616.25585716027</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78480.30921075495</v>
+        <v>78480.30921075477</v>
       </c>
       <c r="C6" t="n">
-        <v>92325.91697705137</v>
+        <v>92325.91697705143</v>
       </c>
       <c r="D6" t="n">
-        <v>92325.91697705137</v>
+        <v>92325.91697705131</v>
       </c>
       <c r="E6" t="n">
-        <v>-304585.4177815595</v>
+        <v>-304981.1144485314</v>
       </c>
       <c r="F6" t="n">
-        <v>193767.4082021113</v>
+        <v>193371.7115351395</v>
       </c>
       <c r="G6" t="n">
-        <v>193767.4082021112</v>
+        <v>193371.7115351394</v>
       </c>
       <c r="H6" t="n">
-        <v>193767.4082021111</v>
+        <v>193371.7115351392</v>
       </c>
       <c r="I6" t="n">
-        <v>100259.3648062546</v>
+        <v>100259.3648062545</v>
       </c>
       <c r="J6" t="n">
-        <v>225700.8530450048</v>
+        <v>225700.8530450049</v>
       </c>
       <c r="K6" t="n">
+        <v>236510.6757023721</v>
+      </c>
+      <c r="L6" t="n">
         <v>236510.675702372</v>
       </c>
-      <c r="L6" t="n">
-        <v>236510.6757023722</v>
-      </c>
       <c r="M6" t="n">
-        <v>144454.3269816951</v>
+        <v>144058.6303147235</v>
       </c>
       <c r="N6" t="n">
-        <v>193767.4082021112</v>
+        <v>193371.7115351394</v>
       </c>
       <c r="O6" t="n">
-        <v>193767.4082021111</v>
+        <v>193371.7115351392</v>
       </c>
       <c r="P6" t="n">
-        <v>193767.4082021112</v>
+        <v>193371.7115351393</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="F3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="G3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="G4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.341156323145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592534</v>
+        <v>512.3751448592535</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871851</v>
+        <v>197.8823823871849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27466,13 +27466,13 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>48.14098415221586</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>147.0792720398758</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
         <v>122.6203591769033</v>
@@ -27703,13 +27703,13 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
         <v>0.003292614422299778</v>
@@ -27751,13 +27751,13 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5731815300314</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58673813049116</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>228.234040354749</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27985,10 +27985,10 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>138.1829268457693</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
         <v>155.8113397110933</v>
@@ -27997,7 +27997,7 @@
         <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28016,22 +28016,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5497288135992</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -31758,40 +31758,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
@@ -31852,19 +31852,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S12" t="n">
         <v>14.23683770781621</v>
@@ -31873,7 +31873,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J13" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J14" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
@@ -32089,19 +32089,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S15" t="n">
         <v>14.23683770781621</v>
@@ -32110,7 +32110,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J16" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J17" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S17" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
@@ -32326,19 +32326,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S18" t="n">
         <v>14.23683770781621</v>
@@ -32347,7 +32347,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S19" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J20" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S20" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598984</v>
@@ -32563,19 +32563,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S21" t="n">
         <v>14.23683770781621</v>
@@ -32584,7 +32584,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J22" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S22" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
@@ -32800,19 +32800,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S24" t="n">
         <v>14.23683770781621</v>
@@ -32821,7 +32821,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S25" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S26" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
@@ -33037,19 +33037,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S27" t="n">
         <v>14.23683770781621</v>
@@ -33058,7 +33058,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S28" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S29" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
@@ -33274,19 +33274,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S30" t="n">
         <v>14.23683770781621</v>
@@ -33295,7 +33295,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S31" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J32" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S32" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
@@ -33511,19 +33511,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S33" t="n">
         <v>14.23683770781621</v>
@@ -33532,7 +33532,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S34" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,40 +33654,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S35" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
@@ -33748,19 +33748,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S36" t="n">
         <v>14.23683770781621</v>
@@ -33769,7 +33769,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S37" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S38" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
@@ -33985,19 +33985,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S39" t="n">
         <v>14.23683770781621</v>
@@ -34006,7 +34006,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S40" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S41" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
@@ -34222,19 +34222,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S42" t="n">
         <v>14.23683770781621</v>
@@ -34243,7 +34243,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S43" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285648</v>
       </c>
       <c r="J44" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651762</v>
       </c>
       <c r="S44" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656552</v>
+        <v>6.27088808765655</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969534</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260051</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
@@ -34459,19 +34459,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424946</v>
       </c>
       <c r="S45" t="n">
         <v>14.23683770781621</v>
@@ -34480,7 +34480,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874695</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417367</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771081</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884904</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440513</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028692</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429933</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824784</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479489</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367663</v>
       </c>
       <c r="S46" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227659</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>39.64570999510202</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J11" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K11" t="n">
-        <v>751.5725302939658</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235234</v>
@@ -35427,10 +35427,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836781</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.8761383553215</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R11" t="n">
         <v>260.8486822662721</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
-        <v>445.3433216364343</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M12" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O12" t="n">
         <v>182.3626293119023</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M13" t="n">
-        <v>340.4180625906757</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>202.8454385191881</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
@@ -35591,7 +35591,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>253.544037682157</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
         <v>251.5392525235234</v>
@@ -35661,13 +35661,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480053</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="P14" t="n">
-        <v>751.5725302939657</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>190.6525095797369</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R14" t="n">
         <v>260.8486822662721</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>563.6996631458684</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,28 +35807,28 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M16" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P16" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q16" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L17" t="n">
-        <v>422.1100501686107</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367806</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
@@ -35980,13 +35980,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>543.640345412093</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q18" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097739</v>
       </c>
       <c r="L19" t="n">
-        <v>206.0797065660406</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O19" t="n">
         <v>514.7344358055939</v>
@@ -36062,10 +36062,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
         <v>226.063545835034</v>
@@ -36135,16 +36135,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>406.371927506535</v>
       </c>
       <c r="Q20" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
-        <v>219.8021040272433</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>400.2512659261654</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044089</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299745</v>
@@ -36211,7 +36211,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
         <v>182.3626293119023</v>
@@ -36220,7 +36220,7 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q21" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
         <v>47.58835291424953</v>
@@ -36284,25 +36284,25 @@
         <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M22" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7371303013415</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P22" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>703.2766464466927</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480051</v>
+        <v>1059.869791506149</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772408</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
         <v>706.7158040369222</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
@@ -36454,13 +36454,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>543.6403454120932</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205079</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
@@ -36527,7 +36527,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O25" t="n">
         <v>514.7344358055939</v>
@@ -36536,10 +36536,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
-        <v>1025.000912337854</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>1059.869791506148</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P26" t="n">
         <v>1042.675852123096</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M27" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.2807455046877</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884905</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
@@ -36770,13 +36770,13 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P28" t="n">
-        <v>394.3792818544453</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
-        <v>223.6992063869488</v>
+        <v>189.3440015966394</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
         <v>1263.947675153219</v>
@@ -36846,13 +36846,13 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>864.7637348729922</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
         <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
-        <v>706.7158040369222</v>
+        <v>340.0343399787716</v>
       </c>
       <c r="R29" t="n">
         <v>260.8486822662717</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
@@ -36928,13 +36928,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
         <v>352.1901855749456</v>
@@ -36998,22 +36998,22 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380012</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O31" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P31" t="n">
-        <v>204.299716797429</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>1068.128902764821</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>1231.445198931143</v>
+        <v>425.1125354256005</v>
       </c>
       <c r="P32" t="n">
         <v>1042.675852123096</v>
@@ -37092,7 +37092,7 @@
         <v>706.7158040369222</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>351.3364905475624</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
         <v>97.83917937385672</v>
@@ -37229,16 +37229,16 @@
         <v>45.43057660205079</v>
       </c>
       <c r="K34" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L34" t="n">
-        <v>293.5339340051213</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N34" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O34" t="n">
         <v>514.7344358055939</v>
@@ -37247,10 +37247,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
         <v>226.063545835034</v>
@@ -37320,13 +37320,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>716.9716083539643</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>751.5725302939657</v>
+        <v>235.509235836781</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R35" t="n">
         <v>260.8486822662721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
@@ -37405,10 +37405,10 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
         <v>352.1901855749456</v>
@@ -37475,19 +37475,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
-        <v>202.8454385191876</v>
+        <v>460.1913577404225</v>
       </c>
       <c r="P37" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235234</v>
@@ -37557,16 +37557,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480053</v>
+        <v>335.8153243079666</v>
       </c>
       <c r="P38" t="n">
-        <v>751.5725302939659</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q38" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R38" t="n">
-        <v>184.4365872564786</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110254</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>563.6996631458684</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939959</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N40" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055939</v>
@@ -37724,7 +37724,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J41" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>458.3576254518448</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
         <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>751.5725302939657</v>
+        <v>235.509235836781</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J42" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612418</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
@@ -37870,7 +37870,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119023</v>
@@ -37882,7 +37882,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>117.0299190450805</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,16 +37940,16 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M43" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N43" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O43" t="n">
         <v>514.7344358055939</v>
@@ -37961,7 +37961,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372508</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L44" t="n">
         <v>226.063545835034</v>
@@ -38031,13 +38031,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>751.5725302939659</v>
+        <v>235.509235836781</v>
       </c>
       <c r="Q44" t="n">
-        <v>630.3037090271287</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38095,31 +38095,31 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J45" t="n">
-        <v>400.2512659261655</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961991</v>
+        <v>398.9570613163382</v>
       </c>
       <c r="Q45" t="n">
-        <v>140.9538029183668</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,28 +38177,28 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L46" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M46" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1697006794816</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P46" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q46" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994794</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
